--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>752147.4620457146</v>
+        <v>808138.0177287348</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>236428.331398364</v>
+        <v>332906.6712380802</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9662474.50327934</v>
+        <v>10850698.87543052</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8707874.164235318</v>
+        <v>8120808.24943541</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C2" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="E2" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>215.4108546636941</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0.3992651953314321</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
-        <v>175.8572039278487</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478779</v>
+        <v>49.55409844946683</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="H5" t="n">
-        <v>163.8660761091114</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>144.136155991912</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825084</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>216.2386617802198</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>58.69923944397687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>92.49556798565635</v>
+        <v>226.2350166920997</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>18.23502820634551</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231963</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>47.07610534434806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>194.5492126817478</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>85.87170836083652</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>68.19029374363589</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>262.896514485497</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>161.0295051069086</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>132.8924451980587</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>210.7035103644684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>23.59568114728116</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>259.498587837489</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>89.76224143674111</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>37.83808333974875</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>69.07086245343525</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>73.2722606926622</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>37.83808333974886</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>28.51033041214353</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>178.0423747041636</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,25 +2605,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>111.6342358707631</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>37.83808333974886</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>281.6126679114865</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>20.35970192912945</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>33.56195970460548</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>83.82953530753669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>16.889865504349</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>45.24972634440809</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>221.002178698296</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>234.4871813790489</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>221.002178698296</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>248.8850931379793</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>157.0044783406138</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>297.2768987000313</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>47.40419526769224</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>164.6639454815218</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>129.0246247964033</v>
+        <v>43.99240337009272</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.59802246633417</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.43151777216858</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.7341079359765</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="C2" t="n">
-        <v>267.7881344992537</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="D2" t="n">
-        <v>267.7881344992537</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E2" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F2" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X2" t="n">
-        <v>825.6800813726992</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.7341079359765</v>
+        <v>760.6642075620503</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196.5455503773155</v>
+        <v>19.96831676599385</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M3" t="n">
-        <v>564.7342926608062</v>
+        <v>619.9647125784934</v>
       </c>
       <c r="N3" t="n">
-        <v>838.1292412261381</v>
+        <v>736.1338244070387</v>
       </c>
       <c r="O3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="S3" t="n">
-        <v>836.1767451915302</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="T3" t="n">
-        <v>836.1767451915302</v>
+        <v>502.1534879887895</v>
       </c>
       <c r="U3" t="n">
-        <v>836.1767451915302</v>
+        <v>502.1534879887895</v>
       </c>
       <c r="V3" t="n">
-        <v>836.1767451915302</v>
+        <v>267.0013797570468</v>
       </c>
       <c r="W3" t="n">
-        <v>581.9393884633287</v>
+        <v>19.96831676599385</v>
       </c>
       <c r="X3" t="n">
-        <v>404.3058491422694</v>
+        <v>19.96831676599385</v>
       </c>
       <c r="Y3" t="n">
-        <v>196.5455503773155</v>
+        <v>19.96831676599385</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>69.61966348734273</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>69.61966348734273</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>69.61966348734273</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>69.61966348734273</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>69.61966348734273</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>69.61966348734273</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.946714969784</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="C5" t="n">
-        <v>1116.984198029372</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="D5" t="n">
-        <v>758.7184994226216</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="E5" t="n">
-        <v>372.9302468243773</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="F5" t="n">
-        <v>372.9302468243773</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="G5" t="n">
-        <v>372.9302468243773</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369335</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>698.4535282668868</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>698.4535282668868</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>698.4535282668868</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500978</v>
+        <v>698.4535282668868</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.946714969784</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.946714969784</v>
+        <v>552.8614515073797</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673426</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>24.95018035683217</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>24.95018035683217</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>24.95018035683217</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>264.2940185443786</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>524.9036321565288</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>752.9179650631197</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>524.6976363053245</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>306.2747456182339</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.1482364572797</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C7" t="n">
-        <v>261.1482364572797</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942403</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942403</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942403</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942403</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942403</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1482364572797</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X7" t="n">
-        <v>261.1482364572797</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.1482364572797</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="U8" t="n">
-        <v>2153.87838018277</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="V8" t="n">
-        <v>2153.87838018277</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="W8" t="n">
-        <v>2153.87838018277</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="X8" t="n">
-        <v>1780.41262192169</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>301.0384945329111</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>179.1664772780923</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D10" t="n">
-        <v>675.4941957298054</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E10" t="n">
-        <v>527.5811021474123</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1268.68094731003</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5080,13 +5080,13 @@
         <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>1642.146705571109</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X11" t="n">
-        <v>1268.68094731003</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y11" t="n">
-        <v>1268.68094731003</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424003</v>
@@ -5135,10 +5135,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5159,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>369.8327295799424</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C13" t="n">
-        <v>369.8327295799424</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D13" t="n">
-        <v>369.8327295799424</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E13" t="n">
-        <v>369.8327295799424</v>
+        <v>140.6820811747448</v>
       </c>
       <c r="F13" t="n">
-        <v>222.942782082032</v>
+        <v>140.6820811747448</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036445</v>
@@ -5229,22 +5229,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>659.249899616903</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>659.249899616903</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>659.249899616903</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>369.8327295799424</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>369.8327295799424</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>369.8327295799424</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1464.687040303175</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="C14" t="n">
-        <v>1095.724523362763</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D14" t="n">
-        <v>737.458824756013</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E14" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5281,16 +5281,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.752638628377</v>
+        <v>2084.652181070394</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.752638628377</v>
+        <v>1753.589293726824</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.752638628377</v>
+        <v>1753.589293726824</v>
       </c>
       <c r="X14" t="n">
-        <v>1851.286880367297</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="Y14" t="n">
-        <v>1851.286880367297</v>
+        <v>1380.123535465744</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5442,40 +5442,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>281.9325327183818</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
         <v>53.94298182036445</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1251.855211652197</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C17" t="n">
-        <v>882.8926947117852</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117852</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="E17" t="n">
         <v>882.8926947117852</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5545,22 +5545,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.752638628377</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.752638628377</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X17" t="n">
-        <v>1851.286880367297</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y17" t="n">
-        <v>1638.455051716319</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5606,13 +5606,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>77.77700318125451</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>224.6669506791649</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>224.6669506791649</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1273.280804219766</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C20" t="n">
-        <v>1273.280804219766</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D20" t="n">
-        <v>1011.161018525332</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E20" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
@@ -5782,22 +5782,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520779</v>
+        <v>2551.451470804533</v>
       </c>
       <c r="U20" t="n">
-        <v>2423.485734520779</v>
+        <v>2551.451470804533</v>
       </c>
       <c r="V20" t="n">
-        <v>2423.485734520779</v>
+        <v>2220.388583460962</v>
       </c>
       <c r="W20" t="n">
-        <v>2423.485734520779</v>
+        <v>1867.619928190848</v>
       </c>
       <c r="X20" t="n">
-        <v>2050.019976259699</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="Y20" t="n">
-        <v>1659.880644283887</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5843,13 +5843,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1422.14692331494</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C23" t="n">
-        <v>1422.14692331494</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036446</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2572.351853615953</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>2572.351853615953</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W23" t="n">
-        <v>2572.351853615953</v>
+        <v>2369.374921118272</v>
       </c>
       <c r="X23" t="n">
-        <v>2198.886095354873</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y23" t="n">
-        <v>1808.746763379062</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="24">
@@ -6080,13 +6080,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C25" t="n">
-        <v>348.7460229006679</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036446</v>
@@ -6186,13 +6186,13 @@
         <v>728.1289842064343</v>
       </c>
       <c r="W25" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X25" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y25" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1448.521729839488</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D26" t="n">
         <v>1268.68094731003</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U26" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V26" t="n">
-        <v>1838.661061815299</v>
+        <v>2353.181059447974</v>
       </c>
       <c r="W26" t="n">
-        <v>1838.661061815299</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="X26" t="n">
-        <v>1838.661061815299</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y26" t="n">
-        <v>1448.521729839488</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064343</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C28" t="n">
-        <v>559.1928012785274</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>409.0761618661917</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>261.1630682837986</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036446</v>
@@ -6423,13 +6423,13 @@
         <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064343</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064343</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1580.775345511217</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="C29" t="n">
-        <v>1211.812828570805</v>
+        <v>997.225916705602</v>
       </c>
       <c r="D29" t="n">
-        <v>1211.812828570805</v>
+        <v>638.9602180988516</v>
       </c>
       <c r="E29" t="n">
-        <v>826.0245759725606</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F29" t="n">
-        <v>415.038671182953</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G29" t="n">
-        <v>415.038671182953</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>87.84395121895585</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y29" t="n">
-        <v>1580.775345511217</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>711.0685140000211</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U31" t="n">
-        <v>711.0685140000211</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V31" t="n">
-        <v>456.3840257941342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W31" t="n">
-        <v>456.3840257941342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X31" t="n">
-        <v>456.3840257941342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y31" t="n">
-        <v>235.5914466506042</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C32" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D32" t="n">
         <v>1268.68094731003</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6733,19 +6733,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.515311311824</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E34" t="n">
         <v>53.94298182036445</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
         <v>1268.68094731003</v>
@@ -6937,7 +6937,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733125</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7019,40 +7019,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>359.423311480511</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>212.5333639826006</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1309.714918859356</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C38" t="n">
-        <v>940.7524019189439</v>
+        <v>1039.683096047709</v>
       </c>
       <c r="D38" t="n">
-        <v>582.4867033121934</v>
+        <v>681.4173974409589</v>
       </c>
       <c r="E38" t="n">
-        <v>582.4867033121934</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>582.4867033121934</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7204,22 +7204,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X38" t="n">
-        <v>1309.714918859356</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y38" t="n">
-        <v>1309.714918859356</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7253,43 +7253,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1226.657559460833</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>857.6950425204218</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>857.6950425204218</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
         <v>471.9067899221776</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7441,22 +7441,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2003.396731500767</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2003.396731500767</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2003.396731500767</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1613.257399524955</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7466,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>184.2708856551153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1732.515907621104</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2169.72394915887</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1779.584617183058</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424003</v>
@@ -7727,16 +7727,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7766,10 +7766,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>286.5323736931987</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>286.5323736931987</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>283.7408238317658</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>246.6290002677862</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938571</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429919</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>371.3531930724114</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>212.3582274761389</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865207</v>
+        <v>120.7101594098652</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>110.1203092595406</v>
       </c>
       <c r="E2" t="n">
-        <v>138.6917128032272</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.1619485273195</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>170.8270839923595</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.3092337929843</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22679,22 +22679,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X3" t="n">
-        <v>29.9157812756288</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>14.932250645712</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887131</v>
+        <v>236.9688998871242</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,28 +22786,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>151.9681874521645</v>
       </c>
       <c r="H5" t="n">
-        <v>160.0566966552457</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852072</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22837,19 +22837,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.104812725501</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>16.56192536920551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22947,28 +22947,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>89.91623357423549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>126.6879292296158</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,22 +23026,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,7 +23077,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>158.7285995226329</v>
+        <v>25.09937309671159</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>129.2100373582932</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,28 +23184,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>47.78481791206877</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>335.6577363191325</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>154.6917560356652</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>81.43809389821439</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23469,7 +23469,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>156.8448117144484</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>119.0338555867648</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>90.19466240138073</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>69.58249272689014</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>249.037924874203</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>175.5344282915852</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>143.7141211117697</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23940,7 +23940,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>95.18445378319393</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>126.6860789209167</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24262,19 +24262,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>182.1533050548541</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>275.9687080247508</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>258.0126679244475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>187.2305170668439</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>216.1180225993718</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>107.5829646831824</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>4.910330425104519</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>361.5706681431323</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>118.3693565402558</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>83.48026695151422</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,22 +24882,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>208.1452399537353</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>337.4841153190725</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>133.680862922387</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25128,13 +25128,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>17.65046194477912</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>2.339074370310044</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>10.30532391843713</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25365,22 +25365,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>84.65347137223051</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>366.3799747531028</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>163.0883129886131</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25839,22 +25839,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>157.4983735401877</v>
+        <v>242.5305949664983</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>336.1358191971464</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,25 +26073,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>168.1531355799262</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>485850.7333573402</v>
+        <v>460143.5209340464</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>778370.5146468756</v>
+        <v>475826.4846459032</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>778370.5146468754</v>
+        <v>485850.7333573399</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778370.5146468752</v>
+        <v>778370.5146468756</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778370.5146468756</v>
+        <v>778370.5146468754</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778370.5146468756</v>
+        <v>778370.5146468754</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778370.5146468754</v>
+        <v>778370.5146468752</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778370.5146468752</v>
+        <v>778370.5146468756</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778370.5146468752</v>
+        <v>778370.5146468756</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778370.5146468752</v>
+        <v>778370.5146468754</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778370.5146468754</v>
+        <v>778370.5146468752</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778370.5146468754</v>
+        <v>778370.5146468752</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778370.5146468754</v>
+        <v>778370.5146468752</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159463.6497950859</v>
+        <v>150588.1755146547</v>
       </c>
       <c r="C2" t="n">
-        <v>260237.3490141817</v>
+        <v>156006.1355264979</v>
       </c>
       <c r="D2" t="n">
-        <v>260237.3490141816</v>
+        <v>159463.6497950858</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="F2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="G2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="H2" t="n">
         <v>260237.3490141816</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="H2" t="n">
-        <v>260237.3490141817</v>
-      </c>
-      <c r="I2" t="n">
-        <v>260237.3490141817</v>
       </c>
       <c r="J2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="L2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="N2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="O2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="O2" t="n">
-        <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141817</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>440708.0835147456</v>
+        <v>23645.3401818954</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14295.33970214111</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>394217.2929137605</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>63988.37154589874</v>
       </c>
       <c r="K3" t="n">
-        <v>102466.1171957466</v>
+        <v>4807.454491750077</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3268.538594581514</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99215.77767884449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>25293.26066533936</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25338.71079138016</v>
+      </c>
+      <c r="D4" t="n">
         <v>25384.5047005482</v>
-      </c>
-      <c r="C4" t="n">
-        <v>27086.83710496504</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
         <v>27086.83710496504</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>48577.10433863014</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50134.40740683336</v>
+      </c>
+      <c r="D5" t="n">
         <v>51181.37951678014</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26487,7 +26487,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340947</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55062.52846038</v>
+        <v>-9996.971540103135</v>
       </c>
       <c r="C6" t="n">
-        <v>-296485.0634147575</v>
+        <v>55701.77347465328</v>
       </c>
       <c r="D6" t="n">
-        <v>144223.0200999879</v>
+        <v>67435.73061648391</v>
       </c>
       <c r="E6" t="n">
-        <v>177850.6200999879</v>
+        <v>-210905.1004425352</v>
       </c>
       <c r="F6" t="n">
-        <v>177850.6200999879</v>
+        <v>183312.1924712253</v>
       </c>
       <c r="G6" t="n">
-        <v>177850.6200999879</v>
+        <v>183312.1924712253</v>
       </c>
       <c r="H6" t="n">
-        <v>177850.620099988</v>
+        <v>183312.1924712252</v>
       </c>
       <c r="I6" t="n">
-        <v>177850.620099988</v>
+        <v>183312.1924712252</v>
       </c>
       <c r="J6" t="n">
-        <v>105595.9252288487</v>
+        <v>119323.8209253265</v>
       </c>
       <c r="K6" t="n">
-        <v>75384.50290424138</v>
+        <v>178504.7379794751</v>
       </c>
       <c r="L6" t="n">
-        <v>177850.620099988</v>
+        <v>180043.6538766437</v>
       </c>
       <c r="M6" t="n">
-        <v>177850.6200999879</v>
+        <v>84096.41479238064</v>
       </c>
       <c r="N6" t="n">
-        <v>177850.620099988</v>
+        <v>183312.1924712252</v>
       </c>
       <c r="O6" t="n">
-        <v>177850.6200999879</v>
+        <v>183312.1924712253</v>
       </c>
       <c r="P6" t="n">
-        <v>177850.620099988</v>
+        <v>183312.1924712253</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26807,7 +26807,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>342.7224034979613</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.00787803233568</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,17 +27011,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
+        <v>18.67930159052449</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.91447975068854</v>
+      </c>
+      <c r="E4" t="n">
         <v>398.1307590522002</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522001</v>
+        <v>18.67930159052437</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.91447975068854</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
+        <v>18.67930159052449</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.91447975068854</v>
+      </c>
+      <c r="M4" t="n">
         <v>398.1307590522002</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466301</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760121</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470703</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840335</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796964</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870382</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052019</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779992</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358774</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O3" t="n">
-        <v>17.9226257568905</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650264</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164379</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263572</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504677</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46492368217439</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170849</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894687</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948822</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394054</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179689</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938415</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587927</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390064</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367679</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>0.9474806248887802</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>3.566727381035003</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760445</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324509</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841739</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544934</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>5.811515176679593</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>0.4049892772318454</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294142</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>0.4780704592104788</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>4.67671015524656</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750316</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688227</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277523081</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210614</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>3.073372125605604</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>0.919449770552396</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467892</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.04149954254994849</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>0.3689686601259059</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166742</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471434</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988743</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815848031</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>5.865771705150904</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>5.01918103713195</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750111</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815375</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424832</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>160.6933770016708</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>117.3425372005508</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>49.48341136478941</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831903</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>3.930118828988703</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>241.7614527146934</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>2.297740302025438</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>100.6082676511396</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,10 +37159,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L35" t="n">
         <v>421.5361394435301</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
